--- a/biology/Botanique/Reinette/Reinette.xlsx
+++ b/biology/Botanique/Reinette/Reinette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette est le nom de plusieurs dizaines de variétés de pommes.
-Ce nom de fruit a tellement été prodigué, qu'on pourrait, sans recourir aux pomologies étrangères, dresser une liste d'au moins cent cinquante pommes ainsi appelées. Nombreux sont les professionnels qui utilisent le nom reinette de façon abusive[1].
+Ce nom de fruit a tellement été prodigué, qu'on pourrait, sans recourir aux pomologies étrangères, dresser une liste d'au moins cent cinquante pommes ainsi appelées. Nombreux sont les professionnels qui utilisent le nom reinette de façon abusive.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot reinette appartient à la nomenclature arboricole depuis quatre siècles environ. Charles Estienne fut en 1540 le premier de nos écrivains horticoles qui le mentionna ; voici dans quels termes, nous traduisons littéralement :
-"Presqu'au même temps que les pommes de Râteau, mûrissent celles appelées Renetia, ou De renette en langue vulgaire, mais elles n'ont pas la chair aussi ferme, et sont d'un goût encore plus agréable." [2]
+"Presqu'au même temps que les pommes de Râteau, mûrissent celles appelées Renetia, ou De renette en langue vulgaire, mais elles n'ont pas la chair aussi ferme, et sont d'un goût encore plus agréable." 
 Il s'agit de la reinette franche, ou Blanche, regardée par les principaux pomologues comme la mère des reinettes.
 Duhamel du Monceau, un siècle après (1768), décrivit douze reinettes.
 </t>
@@ -546,14 +560,16 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux savants étymologistes, Ménage et Borel, ont recherché l'origine du mot « reinette », mais ne sont pas d’accord sur cette question, que dès 1650 Ménage crut pouvoir résumer ainsi :
 « Reinette est le nom d'une sorte de pomme ; quelques-uns le dérivent de reginetta, diminutif de regina, comme qui dirait la reine des Pommes, D'autres, et avec plus de vraisemblance, le dérivent de ranetta, diminutif de rana, parce que les pommes de reinette sont marquetés de petites taches, comme sont les grenouilles. On a dit reine pour dire une grenouille de rana. »
-— Ménage[3]
+— Ménage
 Voici maintenant l'opinion que Borel exprimait en 1751 ;
 « Rainet, grenouille de rana ; d'où vient pomme renette pour estre marquetée comme le ventre des grenouilles, selon Ménage : ou de poma renana. Mais j'estime que c'est pour estre la reine des Pommes. »
-— Borel[4]
+— Borel
 Selon Tableaux analytiques illustrés de pomologie de Constant Houlbert, le groupe des reinettiformes est défini comme « toute pomme dont le pourtour de la cavité oculaire est uni, dépourvu de côtes, de bosselures ou de mamelons ». 
 Ce groupe est ensuite subdivisé en différents sous-groupes : les reinettiformes plates disconnes, reinettiformes plates cyrtonnes, les reinettiformes sphéroïdales, sous divisées en reinettes (les sphéroïdales qui se rapprochent de la sphère parfaite, et les parmaines plus ou moins ovoïdes), les reinettiformes allongées (passeronnes et lagonnes). 
 Il existe également un groupe des calvilliformes défini comme « toute pomme dont le pourtour de la cavité oculaire présente des côtes bien accentuées, des bosselures ou des mamelons » sous-divisé en calvilliformes plates (les apionnes et les rambours), les calvilliformes sphéroïdales (sous-divisées en postophes et calvilles), les calvilliformes allongées (sous-divisées en dolitonnes et pigeonnets).
@@ -585,12 +601,14 @@
           <t>Quelques variétés de reinettes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Reine des reinettes
 Reine des reinettes rouge, diploïde
-Reinette à Longue Queue, diploïde[5]
+Reinette à Longue Queue, diploïde
 Reinette Ananas
 Reinette Baumann
 Reinette Bergamotte
@@ -603,7 +621,7 @@
 Reinette de Bretagne
 Reinette de Brive
 Reinette de Champagne
-Reinette de Chênée, triploïde, S-génotype: S1S9S21[6]
+Reinette de Chênée, triploïde, S-génotype: S1S9S21
 Reinette Cox Orange
 Reinette étoilée
 Reinette de Flandre
